--- a/results/nf/15x15/nf_15x15_True_2_1000.xlsx
+++ b/results/nf/15x15/nf_15x15_True_2_1000.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -530,10 +530,10 @@
         <v>0.15771367</v>
       </c>
       <c r="G2" t="n">
-        <v>0.15771367</v>
+        <v>8.949490429999999</v>
       </c>
       <c r="H2" t="n">
-        <v>8.949487789999999</v>
+        <v>512.77234832</v>
       </c>
       <c r="I2" t="n">
         <v>5.676458947811231</v>
@@ -548,10 +548,10 @@
         <v>0.01810834052108386</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01810834052108386</v>
+        <v>1.05778822273519</v>
       </c>
       <c r="N2" t="n">
-        <v>1.057792317598869</v>
+        <v>92.91633951288924</v>
       </c>
       <c r="O2" t="n">
         <v>0.15</v>
@@ -577,10 +577,10 @@
         <v>0.09454560000000001</v>
       </c>
       <c r="G3" t="n">
-        <v>0.09454560000000001</v>
+        <v>8.108459160000001</v>
       </c>
       <c r="H3" t="n">
-        <v>8.10844764</v>
+        <v>708.0508983</v>
       </c>
       <c r="I3" t="n">
         <v>11.79047642524823</v>
@@ -595,10 +595,10 @@
         <v>0.01550531711054949</v>
       </c>
       <c r="M3" t="n">
-        <v>0.01550531711054949</v>
+        <v>0.7822569855540713</v>
       </c>
       <c r="N3" t="n">
-        <v>0.7822594208764637</v>
+        <v>118.8119675302528</v>
       </c>
       <c r="O3" t="n">
         <v>0.85</v>
@@ -624,10 +624,10 @@
         <v>0.24087683</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1204384</v>
+        <v>3.89035115</v>
       </c>
       <c r="H4" t="n">
-        <v>3.89035161</v>
+        <v>128.60162033</v>
       </c>
       <c r="I4" t="n">
         <v>5.107138814137214</v>
@@ -642,10 +642,10 @@
         <v>0.03929970491056081</v>
       </c>
       <c r="M4" t="n">
-        <v>0.01964995125755849</v>
+        <v>0.7040189259567408</v>
       </c>
       <c r="N4" t="n">
-        <v>0.7040168510579</v>
+        <v>37.86378018965771</v>
       </c>
       <c r="O4" t="n">
         <v>0.15</v>
@@ -671,10 +671,10 @@
         <v>0.14741604</v>
       </c>
       <c r="G5" t="n">
-        <v>0.07370819000000001</v>
+        <v>3.50247937</v>
       </c>
       <c r="H5" t="n">
-        <v>3.50247494</v>
+        <v>171.25943988</v>
       </c>
       <c r="I5" t="n">
         <v>8.351605433287261</v>
@@ -689,10 +689,10 @@
         <v>0.0292129690082449</v>
       </c>
       <c r="M5" t="n">
-        <v>0.01460658704862669</v>
+        <v>0.4861583988630538</v>
       </c>
       <c r="N5" t="n">
-        <v>0.4861572966766089</v>
+        <v>41.27491655830466</v>
       </c>
       <c r="O5" t="n">
         <v>0.85</v>
@@ -718,10 +718,10 @@
         <v>0.30906367</v>
       </c>
       <c r="G6" t="n">
-        <v>0.07726585</v>
+        <v>1.47205695</v>
       </c>
       <c r="H6" t="n">
-        <v>1.4720584</v>
+        <v>29.0620712</v>
       </c>
       <c r="I6" t="n">
         <v>3.802849018914721</v>
@@ -736,10 +736,10 @@
         <v>0.0748015030148752</v>
       </c>
       <c r="M6" t="n">
-        <v>0.01870044023392076</v>
+        <v>0.3741776653142428</v>
       </c>
       <c r="N6" t="n">
-        <v>0.3741769437245633</v>
+        <v>11.3149706709528</v>
       </c>
       <c r="O6" t="n">
         <v>0.15</v>
@@ -765,10 +765,10 @@
         <v>0.19740672</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04935171000000001</v>
+        <v>1.31934387</v>
       </c>
       <c r="H7" t="n">
-        <v>1.31934298</v>
+        <v>36.53761601999999</v>
       </c>
       <c r="I7" t="n">
         <v>5.391956713216195</v>
@@ -783,10 +783,10 @@
         <v>0.04269777525883116</v>
       </c>
       <c r="M7" t="n">
-        <v>0.01067433220130626</v>
+        <v>0.2532566510775939</v>
       </c>
       <c r="N7" t="n">
-        <v>0.2532606179818334</v>
+        <v>11.91472697205999</v>
       </c>
       <c r="O7" t="n">
         <v>0.85</v>
@@ -812,10 +812,10 @@
         <v>0.33184509</v>
       </c>
       <c r="G8" t="n">
-        <v>0.05530758</v>
+        <v>0.7416628399999999</v>
       </c>
       <c r="H8" t="n">
-        <v>0.7416625100000002</v>
+        <v>10.34928998</v>
       </c>
       <c r="I8" t="n">
         <v>2.779478458362378</v>
@@ -830,10 +830,10 @@
         <v>0.09575654022356639</v>
       </c>
       <c r="M8" t="n">
-        <v>0.01595933752377579</v>
+        <v>0.2489281767110648</v>
       </c>
       <c r="N8" t="n">
-        <v>0.2489282634067948</v>
+        <v>4.81067637557166</v>
       </c>
       <c r="O8" t="n">
         <v>0.15</v>
@@ -859,10 +859,10 @@
         <v>0.21472292</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03578712</v>
+        <v>0.6810248899999999</v>
       </c>
       <c r="H9" t="n">
-        <v>0.68102517</v>
+        <v>13.60453525</v>
       </c>
       <c r="I9" t="n">
         <v>4.325935473133842</v>
@@ -877,10 +877,10 @@
         <v>0.05214509812563528</v>
       </c>
       <c r="M9" t="n">
-        <v>0.008690797366436779</v>
+        <v>0.189282631053159</v>
       </c>
       <c r="N9" t="n">
-        <v>0.189280496891451</v>
+        <v>6.493293347756063</v>
       </c>
       <c r="O9" t="n">
         <v>0.85</v>
@@ -906,10 +906,10 @@
         <v>0.33060072</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04132523</v>
+        <v>0.41474409</v>
       </c>
       <c r="H10" t="n">
-        <v>0.4147425</v>
+        <v>4.38585765</v>
       </c>
       <c r="I10" t="n">
         <v>2.324932108537647</v>
@@ -924,10 +924,10 @@
         <v>0.09864243303404714</v>
       </c>
       <c r="M10" t="n">
-        <v>0.01233017867888999</v>
+        <v>0.1744700250455972</v>
       </c>
       <c r="N10" t="n">
-        <v>0.1744696215643251</v>
+        <v>2.657549453933808</v>
       </c>
       <c r="O10" t="n">
         <v>0.15</v>
@@ -953,10 +953,10 @@
         <v>0.21403565</v>
       </c>
       <c r="G11" t="n">
-        <v>0.02675449</v>
+        <v>0.3976717</v>
       </c>
       <c r="H11" t="n">
-        <v>0.3976709</v>
+        <v>6.285023280000001</v>
       </c>
       <c r="I11" t="n">
         <v>3.748809487366966</v>
@@ -971,10 +971,10 @@
         <v>0.05703839222282536</v>
       </c>
       <c r="M11" t="n">
-        <v>0.007129854470090162</v>
+        <v>0.1362788077418846</v>
       </c>
       <c r="N11" t="n">
-        <v>0.1362766547836753</v>
+        <v>3.676985495048388</v>
       </c>
       <c r="O11" t="n">
         <v>0.85</v>
@@ -1000,10 +1000,10 @@
         <v>0.3258777200000001</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03258785</v>
+        <v>0.25240488</v>
       </c>
       <c r="H12" t="n">
-        <v>0.25240454</v>
+        <v>2.08240106</v>
       </c>
       <c r="I12" t="n">
         <v>2.008574213309125</v>
@@ -1018,10 +1018,10 @@
         <v>0.1051580523325341</v>
       </c>
       <c r="M12" t="n">
-        <v>0.01051584001250821</v>
+        <v>0.1167621609049987</v>
       </c>
       <c r="N12" t="n">
-        <v>0.1167617617741399</v>
+        <v>1.417590722499761</v>
       </c>
       <c r="O12" t="n">
         <v>0.15</v>
@@ -1047,10 +1047,10 @@
         <v>0.18859347</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01885934</v>
+        <v>0.22584488</v>
       </c>
       <c r="H13" t="n">
-        <v>0.22584569</v>
+        <v>2.91814978</v>
       </c>
       <c r="I13" t="n">
         <v>3.388279273678076</v>
@@ -1065,10 +1065,10 @@
         <v>0.05201769040022514</v>
       </c>
       <c r="M13" t="n">
-        <v>0.005201918561561793</v>
+        <v>0.08359638611780749</v>
       </c>
       <c r="N13" t="n">
-        <v>0.08359710319734104</v>
+        <v>1.936955307406405</v>
       </c>
       <c r="O13" t="n">
         <v>0.85</v>

--- a/results/nf/15x15/nf_15x15_True_2_1000.xlsx
+++ b/results/nf/15x15/nf_15x15_True_2_1000.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -518,40 +518,40 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>57.006</v>
+        <v>57.365</v>
       </c>
       <c r="D2" t="n">
-        <v>57.006</v>
+        <v>57.365</v>
       </c>
       <c r="E2" t="n">
-        <v>2.9947793</v>
+        <v>2.97113999</v>
       </c>
       <c r="F2" t="n">
-        <v>0.15771367</v>
+        <v>0.02490991</v>
       </c>
       <c r="G2" t="n">
-        <v>8.949490429999999</v>
+        <v>1.41937062</v>
       </c>
       <c r="H2" t="n">
-        <v>512.77234832</v>
+        <v>81.53381680999999</v>
       </c>
       <c r="I2" t="n">
-        <v>5.676458947811231</v>
+        <v>5.320157805843646</v>
       </c>
       <c r="J2" t="n">
-        <v>5.676458947811231</v>
+        <v>5.320157805843646</v>
       </c>
       <c r="K2" t="n">
-        <v>0.3066027487584811</v>
+        <v>0.2731317790016397</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01810834052108386</v>
+        <v>0.003154962008832622</v>
       </c>
       <c r="M2" t="n">
-        <v>1.05778822273519</v>
+        <v>0.1499306754151599</v>
       </c>
       <c r="N2" t="n">
-        <v>92.91633951288924</v>
+        <v>11.88823192923915</v>
       </c>
       <c r="O2" t="n">
         <v>0.15</v>
@@ -565,40 +565,40 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>87.291</v>
+        <v>87.864</v>
       </c>
       <c r="D3" t="n">
-        <v>87.291</v>
+        <v>87.864</v>
       </c>
       <c r="E3" t="n">
-        <v>1.97136788</v>
+        <v>1.95999567</v>
       </c>
       <c r="F3" t="n">
-        <v>0.09454560000000001</v>
+        <v>0.0166586</v>
       </c>
       <c r="G3" t="n">
-        <v>8.108459160000001</v>
+        <v>1.44007047</v>
       </c>
       <c r="H3" t="n">
-        <v>708.0508983</v>
+        <v>126.88050474</v>
       </c>
       <c r="I3" t="n">
-        <v>11.79047642524823</v>
+        <v>12.40763690045181</v>
       </c>
       <c r="J3" t="n">
-        <v>11.79047642524823</v>
+        <v>12.40763690045181</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2663902276948554</v>
+        <v>0.2644305860977794</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01550531711054949</v>
+        <v>0.002444669844917847</v>
       </c>
       <c r="M3" t="n">
-        <v>0.7822569855540713</v>
+        <v>0.1277562330603281</v>
       </c>
       <c r="N3" t="n">
-        <v>118.8119675302528</v>
+        <v>23.3858671666646</v>
       </c>
       <c r="O3" t="n">
         <v>0.85</v>
@@ -612,40 +612,40 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>32.596</v>
+        <v>32.682</v>
       </c>
       <c r="D4" t="n">
-        <v>65.13200000000001</v>
+        <v>65.304</v>
       </c>
       <c r="E4" t="n">
-        <v>2.65553101</v>
+        <v>2.64202544</v>
       </c>
       <c r="F4" t="n">
-        <v>0.24087683</v>
+        <v>0.04027917</v>
       </c>
       <c r="G4" t="n">
-        <v>3.89035115</v>
+        <v>0.65326478</v>
       </c>
       <c r="H4" t="n">
-        <v>128.60162033</v>
+        <v>21.63867518</v>
       </c>
       <c r="I4" t="n">
-        <v>5.107138814137214</v>
+        <v>4.834071187337257</v>
       </c>
       <c r="J4" t="n">
-        <v>10.19325651980163</v>
+        <v>9.640981927818999</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3966147119639237</v>
+        <v>0.3742397804925467</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03929970491056081</v>
+        <v>0.00591641203284917</v>
       </c>
       <c r="M4" t="n">
-        <v>0.7040189259567408</v>
+        <v>0.1116700820881994</v>
       </c>
       <c r="N4" t="n">
-        <v>37.86378018965771</v>
+        <v>6.199053811861268</v>
       </c>
       <c r="O4" t="n">
         <v>0.15</v>
@@ -659,40 +659,40 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>48.706</v>
+        <v>48.699</v>
       </c>
       <c r="D5" t="n">
-        <v>95.149</v>
+        <v>95.02200000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>1.82313926</v>
+        <v>1.82448447</v>
       </c>
       <c r="F5" t="n">
-        <v>0.14741604</v>
+        <v>0.02652993</v>
       </c>
       <c r="G5" t="n">
-        <v>3.50247937</v>
+        <v>0.6324907099999999</v>
       </c>
       <c r="H5" t="n">
-        <v>171.25943988</v>
+        <v>31.05493616</v>
       </c>
       <c r="I5" t="n">
-        <v>8.351605433287261</v>
+        <v>8.541273461981671</v>
       </c>
       <c r="J5" t="n">
-        <v>15.47256278704983</v>
+        <v>15.39670661455152</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2958403812295042</v>
+        <v>0.2910290981907355</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0292129690082449</v>
+        <v>0.004417988605510252</v>
       </c>
       <c r="M5" t="n">
-        <v>0.4861583988630538</v>
+        <v>0.07846775317341502</v>
       </c>
       <c r="N5" t="n">
-        <v>41.27491655830466</v>
+        <v>7.927988941195578</v>
       </c>
       <c r="O5" t="n">
         <v>0.85</v>
@@ -706,40 +706,40 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>19.349</v>
+        <v>19.452</v>
       </c>
       <c r="D6" t="n">
-        <v>77.271</v>
+        <v>77.65000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>2.26595103</v>
+        <v>2.25203566</v>
       </c>
       <c r="F6" t="n">
-        <v>0.30906367</v>
+        <v>0.05408004</v>
       </c>
       <c r="G6" t="n">
-        <v>1.47205695</v>
+        <v>0.2606735</v>
       </c>
       <c r="H6" t="n">
-        <v>29.0620712</v>
+        <v>5.20954745</v>
       </c>
       <c r="I6" t="n">
-        <v>3.802849018914721</v>
+        <v>3.699375809698358</v>
       </c>
       <c r="J6" t="n">
-        <v>15.19152202188251</v>
+        <v>14.76128027629702</v>
       </c>
       <c r="K6" t="n">
-        <v>0.4194945145273746</v>
+        <v>0.412703093308726</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0748015030148752</v>
+        <v>0.01178866740040949</v>
       </c>
       <c r="M6" t="n">
-        <v>0.3741776653142428</v>
+        <v>0.06776512306972264</v>
       </c>
       <c r="N6" t="n">
-        <v>11.3149706709528</v>
+        <v>2.196665632224895</v>
       </c>
       <c r="O6" t="n">
         <v>0.15</v>
@@ -753,40 +753,40 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>27.374</v>
+        <v>27.353</v>
       </c>
       <c r="D7" t="n">
-        <v>100.151</v>
+        <v>100.754</v>
       </c>
       <c r="E7" t="n">
-        <v>1.72745804</v>
+        <v>1.72111005</v>
       </c>
       <c r="F7" t="n">
-        <v>0.19740672</v>
+        <v>0.03848635</v>
       </c>
       <c r="G7" t="n">
-        <v>1.31934387</v>
+        <v>0.2579575</v>
       </c>
       <c r="H7" t="n">
-        <v>36.53761601999999</v>
+        <v>7.1603633</v>
       </c>
       <c r="I7" t="n">
-        <v>5.391956713216195</v>
+        <v>5.2057170966631</v>
       </c>
       <c r="J7" t="n">
-        <v>15.50582566745898</v>
+        <v>16.09162590990806</v>
       </c>
       <c r="K7" t="n">
-        <v>0.26504487662693</v>
+        <v>0.2817475500419696</v>
       </c>
       <c r="L7" t="n">
-        <v>0.04269777525883116</v>
+        <v>0.007343530310069872</v>
       </c>
       <c r="M7" t="n">
-        <v>0.2532566510775939</v>
+        <v>0.04594113851177132</v>
       </c>
       <c r="N7" t="n">
-        <v>11.91472697205999</v>
+        <v>2.271756111277273</v>
       </c>
       <c r="O7" t="n">
         <v>0.85</v>
@@ -800,40 +800,40 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>13.515</v>
+        <v>13.249</v>
       </c>
       <c r="D8" t="n">
-        <v>80.89700000000001</v>
+        <v>79.294</v>
       </c>
       <c r="E8" t="n">
-        <v>2.18535134</v>
+        <v>2.23132336</v>
       </c>
       <c r="F8" t="n">
-        <v>0.33184509</v>
+        <v>0.06012335999999999</v>
       </c>
       <c r="G8" t="n">
-        <v>0.7416628399999999</v>
+        <v>0.13249847</v>
       </c>
       <c r="H8" t="n">
-        <v>10.34928998</v>
+        <v>1.82867511</v>
       </c>
       <c r="I8" t="n">
-        <v>2.779478458362378</v>
+        <v>2.792991192216653</v>
       </c>
       <c r="J8" t="n">
-        <v>16.65339985488629</v>
+        <v>16.74520725359844</v>
       </c>
       <c r="K8" t="n">
-        <v>0.4940511267987307</v>
+        <v>0.5006037627241369</v>
       </c>
       <c r="L8" t="n">
-        <v>0.09575654022356639</v>
+        <v>0.01346878869012278</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2489281767110648</v>
+        <v>0.04056914367814383</v>
       </c>
       <c r="N8" t="n">
-        <v>4.81067637557166</v>
+        <v>0.8853916540604321</v>
       </c>
       <c r="O8" t="n">
         <v>0.15</v>
@@ -847,40 +847,40 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>19.386</v>
+        <v>19.292</v>
       </c>
       <c r="D9" t="n">
-        <v>97.96299999999999</v>
+        <v>97.48</v>
       </c>
       <c r="E9" t="n">
-        <v>1.7723702</v>
+        <v>1.78270144</v>
       </c>
       <c r="F9" t="n">
-        <v>0.21472292</v>
+        <v>0.04292247</v>
       </c>
       <c r="G9" t="n">
-        <v>0.6810248899999999</v>
+        <v>0.13589984</v>
       </c>
       <c r="H9" t="n">
-        <v>13.60453525</v>
+        <v>2.70927865</v>
       </c>
       <c r="I9" t="n">
-        <v>4.325935473133842</v>
+        <v>4.257565368008208</v>
       </c>
       <c r="J9" t="n">
-        <v>15.8096671874071</v>
+        <v>16.15916825578342</v>
       </c>
       <c r="K9" t="n">
-        <v>0.3005308147747734</v>
+        <v>0.3042322848289751</v>
       </c>
       <c r="L9" t="n">
-        <v>0.05214509812563528</v>
+        <v>0.008584551329022421</v>
       </c>
       <c r="M9" t="n">
-        <v>0.189282631053159</v>
+        <v>0.03343901599876057</v>
       </c>
       <c r="N9" t="n">
-        <v>6.493293347756063</v>
+        <v>1.270539684819084</v>
       </c>
       <c r="O9" t="n">
         <v>0.85</v>
@@ -894,40 +894,40 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>9.936</v>
+        <v>9.757</v>
       </c>
       <c r="D10" t="n">
-        <v>79.25700000000001</v>
+        <v>77.81999999999999</v>
       </c>
       <c r="E10" t="n">
-        <v>2.26546075</v>
+        <v>2.309417</v>
       </c>
       <c r="F10" t="n">
-        <v>0.33060072</v>
+        <v>0.06146065</v>
       </c>
       <c r="G10" t="n">
-        <v>0.41474409</v>
+        <v>0.07538022000000001</v>
       </c>
       <c r="H10" t="n">
-        <v>4.38585765</v>
+        <v>0.78181485</v>
       </c>
       <c r="I10" t="n">
-        <v>2.324932108537647</v>
+        <v>2.365913892885485</v>
       </c>
       <c r="J10" t="n">
-        <v>18.54661499918322</v>
+        <v>18.81168465288209</v>
       </c>
       <c r="K10" t="n">
-        <v>0.5997726868765038</v>
+        <v>0.6010924663799562</v>
       </c>
       <c r="L10" t="n">
-        <v>0.09864243303404714</v>
+        <v>0.01479462070075401</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1744700250455972</v>
+        <v>0.0274361960885143</v>
       </c>
       <c r="N10" t="n">
-        <v>2.657549453933808</v>
+        <v>0.4406157677818572</v>
       </c>
       <c r="O10" t="n">
         <v>0.15</v>
@@ -941,40 +941,40 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>15.059</v>
+        <v>14.788</v>
       </c>
       <c r="D11" t="n">
-        <v>91.931</v>
+        <v>91.646</v>
       </c>
       <c r="E11" t="n">
-        <v>1.89880183</v>
+        <v>1.91304846</v>
       </c>
       <c r="F11" t="n">
-        <v>0.21403565</v>
+        <v>0.04162814</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3976717</v>
+        <v>0.07583028999999999</v>
       </c>
       <c r="H11" t="n">
-        <v>6.285023280000001</v>
+        <v>1.1796218</v>
       </c>
       <c r="I11" t="n">
-        <v>3.748809487366966</v>
+        <v>3.847838596129243</v>
       </c>
       <c r="J11" t="n">
-        <v>16.52390021388045</v>
+        <v>17.68274196394223</v>
       </c>
       <c r="K11" t="n">
-        <v>0.3461370452688625</v>
+        <v>0.3704606071601755</v>
       </c>
       <c r="L11" t="n">
-        <v>0.05703839222282536</v>
+        <v>0.00926349372841891</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1362788077418846</v>
+        <v>0.0227010566976758</v>
       </c>
       <c r="N11" t="n">
-        <v>3.676985495048388</v>
+        <v>0.6851812841761992</v>
       </c>
       <c r="O11" t="n">
         <v>0.85</v>
@@ -988,40 +988,40 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>7.608</v>
+        <v>7.416</v>
       </c>
       <c r="D12" t="n">
-        <v>75.727</v>
+        <v>73.866</v>
       </c>
       <c r="E12" t="n">
-        <v>2.40170867</v>
+        <v>2.45605754</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3258777200000001</v>
+        <v>0.06082523000000001</v>
       </c>
       <c r="G12" t="n">
-        <v>0.25240488</v>
+        <v>0.04636355</v>
       </c>
       <c r="H12" t="n">
-        <v>2.08240106</v>
+        <v>0.37697081</v>
       </c>
       <c r="I12" t="n">
-        <v>2.008574213309125</v>
+        <v>1.949036362601464</v>
       </c>
       <c r="J12" t="n">
-        <v>19.97988154786376</v>
+        <v>19.36339290994698</v>
       </c>
       <c r="K12" t="n">
-        <v>0.6837443405021351</v>
+        <v>0.6760375782667537</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1051580523325341</v>
+        <v>0.01633279295996165</v>
       </c>
       <c r="M12" t="n">
-        <v>0.1167621609049987</v>
+        <v>0.02119164856414825</v>
       </c>
       <c r="N12" t="n">
-        <v>1.417590722499761</v>
+        <v>0.2650125554772915</v>
       </c>
       <c r="O12" t="n">
         <v>0.15</v>
@@ -1035,40 +1035,40 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>12.138</v>
+        <v>12.024</v>
       </c>
       <c r="D13" t="n">
-        <v>83.52500000000001</v>
+        <v>84.048</v>
       </c>
       <c r="E13" t="n">
-        <v>2.10337579</v>
+        <v>2.0988823</v>
       </c>
       <c r="F13" t="n">
-        <v>0.18859347</v>
+        <v>0.04014076</v>
       </c>
       <c r="G13" t="n">
-        <v>0.22584488</v>
+        <v>0.04787667999999999</v>
       </c>
       <c r="H13" t="n">
-        <v>2.91814978</v>
+        <v>0.6141641999999999</v>
       </c>
       <c r="I13" t="n">
-        <v>3.388279273678076</v>
+        <v>3.342243946003133</v>
       </c>
       <c r="J13" t="n">
-        <v>17.00990040275697</v>
+        <v>17.69182570275597</v>
       </c>
       <c r="K13" t="n">
-        <v>0.4086016977487724</v>
+        <v>0.4335243177721519</v>
       </c>
       <c r="L13" t="n">
-        <v>0.05201769040022514</v>
+        <v>0.009542757098209901</v>
       </c>
       <c r="M13" t="n">
-        <v>0.08359638611780749</v>
+        <v>0.01674002458183979</v>
       </c>
       <c r="N13" t="n">
-        <v>1.936955307406405</v>
+        <v>0.3894769235103758</v>
       </c>
       <c r="O13" t="n">
         <v>0.85</v>

--- a/results/nf/15x15/nf_15x15_True_2_1000.xlsx
+++ b/results/nf/15x15/nf_15x15_True_2_1000.xlsx
@@ -518,40 +518,40 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>57.365</v>
+        <v>48.177</v>
       </c>
       <c r="D2" t="n">
-        <v>57.365</v>
+        <v>48.177</v>
       </c>
       <c r="E2" t="n">
-        <v>2.97113999</v>
+        <v>3.55277867</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02490991</v>
+        <v>0.02433503</v>
       </c>
       <c r="G2" t="n">
-        <v>1.41937062</v>
+        <v>1.164731</v>
       </c>
       <c r="H2" t="n">
-        <v>81.53381680999999</v>
+        <v>56.44339078</v>
       </c>
       <c r="I2" t="n">
-        <v>5.320157805843646</v>
+        <v>5.566206396968554</v>
       </c>
       <c r="J2" t="n">
-        <v>5.320157805843646</v>
+        <v>5.566206396968554</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2731317790016397</v>
+        <v>0.395659608027096</v>
       </c>
       <c r="L2" t="n">
-        <v>0.003154962008832622</v>
+        <v>0.003768716893868008</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1499306754151599</v>
+        <v>0.1840152679911476</v>
       </c>
       <c r="N2" t="n">
-        <v>11.88823192923915</v>
+        <v>12.67829446369795</v>
       </c>
       <c r="O2" t="n">
         <v>0.15</v>
@@ -565,40 +565,40 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>87.864</v>
+        <v>86.72</v>
       </c>
       <c r="D3" t="n">
-        <v>87.864</v>
+        <v>86.72</v>
       </c>
       <c r="E3" t="n">
-        <v>1.95999567</v>
+        <v>1.99003187</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0166586</v>
+        <v>0.01624326</v>
       </c>
       <c r="G3" t="n">
-        <v>1.44007047</v>
+        <v>1.38270517</v>
       </c>
       <c r="H3" t="n">
-        <v>126.88050474</v>
+        <v>120.22189381</v>
       </c>
       <c r="I3" t="n">
-        <v>12.40763690045181</v>
+        <v>12.77132360825246</v>
       </c>
       <c r="J3" t="n">
-        <v>12.40763690045181</v>
+        <v>12.77132360825246</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2644305860977794</v>
+        <v>0.287110909693568</v>
       </c>
       <c r="L3" t="n">
-        <v>0.002444669844917847</v>
+        <v>0.002566627816951798</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1277562330603281</v>
+        <v>0.1272442274548896</v>
       </c>
       <c r="N3" t="n">
-        <v>23.3858671666646</v>
+        <v>22.89348009974907</v>
       </c>
       <c r="O3" t="n">
         <v>0.85</v>
@@ -612,40 +612,40 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>32.682</v>
+        <v>28.107</v>
       </c>
       <c r="D4" t="n">
-        <v>65.304</v>
+        <v>56.154</v>
       </c>
       <c r="E4" t="n">
-        <v>2.64202544</v>
+        <v>3.11514325</v>
       </c>
       <c r="F4" t="n">
-        <v>0.04027917</v>
+        <v>0.03845762</v>
       </c>
       <c r="G4" t="n">
-        <v>0.65326478</v>
+        <v>0.53157267</v>
       </c>
       <c r="H4" t="n">
-        <v>21.63867518</v>
+        <v>15.22160484</v>
       </c>
       <c r="I4" t="n">
-        <v>4.834071187337257</v>
+        <v>5.464193298960828</v>
       </c>
       <c r="J4" t="n">
-        <v>9.640981927818999</v>
+        <v>10.8941712381882</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3742397804925467</v>
+        <v>0.5607040403264237</v>
       </c>
       <c r="L4" t="n">
-        <v>0.00591641203284917</v>
+        <v>0.006600256731713133</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1116700820881994</v>
+        <v>0.1009696213690559</v>
       </c>
       <c r="N4" t="n">
-        <v>6.199053811861268</v>
+        <v>5.29275551823316</v>
       </c>
       <c r="O4" t="n">
         <v>0.15</v>
@@ -659,40 +659,40 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>48.699</v>
+        <v>48.201</v>
       </c>
       <c r="D5" t="n">
-        <v>95.02200000000001</v>
+        <v>94.00700000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>1.82448447</v>
+        <v>1.84563495</v>
       </c>
       <c r="F5" t="n">
-        <v>0.02652993</v>
+        <v>0.02635705</v>
       </c>
       <c r="G5" t="n">
-        <v>0.6324907099999999</v>
+        <v>0.62059492</v>
       </c>
       <c r="H5" t="n">
-        <v>31.05493616</v>
+        <v>30.10493904</v>
       </c>
       <c r="I5" t="n">
-        <v>8.541273461981671</v>
+        <v>8.487086050561148</v>
       </c>
       <c r="J5" t="n">
-        <v>15.39670661455152</v>
+        <v>15.4521752747217</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2910290981907355</v>
+        <v>0.2984568981797348</v>
       </c>
       <c r="L5" t="n">
-        <v>0.004417988605510252</v>
+        <v>0.005955568334902362</v>
       </c>
       <c r="M5" t="n">
-        <v>0.07846775317341502</v>
+        <v>0.1131074828464919</v>
       </c>
       <c r="N5" t="n">
-        <v>7.927988941195578</v>
+        <v>8.3538971929861</v>
       </c>
       <c r="O5" t="n">
         <v>0.85</v>
@@ -706,40 +706,40 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>19.452</v>
+        <v>16.658</v>
       </c>
       <c r="D6" t="n">
-        <v>77.65000000000001</v>
+        <v>66.502</v>
       </c>
       <c r="E6" t="n">
-        <v>2.25203566</v>
+        <v>2.65270173</v>
       </c>
       <c r="F6" t="n">
-        <v>0.05408004</v>
+        <v>0.05174844</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2606735</v>
+        <v>0.2110295</v>
       </c>
       <c r="H6" t="n">
-        <v>5.20954745</v>
+        <v>3.59561762</v>
       </c>
       <c r="I6" t="n">
-        <v>3.699375809698358</v>
+        <v>3.661207511250959</v>
       </c>
       <c r="J6" t="n">
-        <v>14.76128027629702</v>
+        <v>14.57815209546527</v>
       </c>
       <c r="K6" t="n">
-        <v>0.412703093308726</v>
+        <v>0.532946189282725</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01178866740040949</v>
+        <v>0.01399910313752474</v>
       </c>
       <c r="M6" t="n">
-        <v>0.06776512306972264</v>
+        <v>0.05915484469594186</v>
       </c>
       <c r="N6" t="n">
-        <v>2.196665632224895</v>
+        <v>1.539338216296044</v>
       </c>
       <c r="O6" t="n">
         <v>0.15</v>
@@ -753,40 +753,40 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>27.353</v>
+        <v>26.79</v>
       </c>
       <c r="D7" t="n">
-        <v>100.754</v>
+        <v>98.184</v>
       </c>
       <c r="E7" t="n">
-        <v>1.72111005</v>
+        <v>1.76667751</v>
       </c>
       <c r="F7" t="n">
-        <v>0.03848635</v>
+        <v>0.03642079</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2579575</v>
+        <v>0.23882021</v>
       </c>
       <c r="H7" t="n">
-        <v>7.1603633</v>
+        <v>6.50948818</v>
       </c>
       <c r="I7" t="n">
-        <v>5.2057170966631</v>
+        <v>5.326750817738171</v>
       </c>
       <c r="J7" t="n">
-        <v>16.09162590990806</v>
+        <v>16.06113645120121</v>
       </c>
       <c r="K7" t="n">
-        <v>0.2817475500419696</v>
+        <v>0.285562182767128</v>
       </c>
       <c r="L7" t="n">
-        <v>0.007343530310069872</v>
+        <v>0.007647379164392464</v>
       </c>
       <c r="M7" t="n">
-        <v>0.04594113851177132</v>
+        <v>0.04746934300979614</v>
       </c>
       <c r="N7" t="n">
-        <v>2.271756111277273</v>
+        <v>2.415783426311956</v>
       </c>
       <c r="O7" t="n">
         <v>0.85</v>
@@ -800,40 +800,40 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>13.249</v>
+        <v>11.234</v>
       </c>
       <c r="D8" t="n">
-        <v>79.294</v>
+        <v>67.215</v>
       </c>
       <c r="E8" t="n">
-        <v>2.23132336</v>
+        <v>2.6200787</v>
       </c>
       <c r="F8" t="n">
-        <v>0.06012335999999999</v>
+        <v>0.0551564</v>
       </c>
       <c r="G8" t="n">
-        <v>0.13249847</v>
+        <v>0.10283655</v>
       </c>
       <c r="H8" t="n">
-        <v>1.82867511</v>
+        <v>1.19411918</v>
       </c>
       <c r="I8" t="n">
-        <v>2.792991192216653</v>
+        <v>2.2504018104126</v>
       </c>
       <c r="J8" t="n">
-        <v>16.74520725359844</v>
+        <v>13.45086245192853</v>
       </c>
       <c r="K8" t="n">
-        <v>0.5006037627241369</v>
+        <v>0.553914384164642</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01346878869012278</v>
+        <v>0.01429440084562958</v>
       </c>
       <c r="M8" t="n">
-        <v>0.04056914367814383</v>
+        <v>0.03249865855701594</v>
       </c>
       <c r="N8" t="n">
-        <v>0.8853916540604321</v>
+        <v>0.5401764753912315</v>
       </c>
       <c r="O8" t="n">
         <v>0.15</v>
@@ -847,40 +847,40 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>19.292</v>
+        <v>19.057</v>
       </c>
       <c r="D9" t="n">
-        <v>97.48</v>
+        <v>95.72</v>
       </c>
       <c r="E9" t="n">
-        <v>1.78270144</v>
+        <v>1.81713302</v>
       </c>
       <c r="F9" t="n">
-        <v>0.04292247</v>
+        <v>0.04022206</v>
       </c>
       <c r="G9" t="n">
-        <v>0.13589984</v>
+        <v>0.12506851</v>
       </c>
       <c r="H9" t="n">
-        <v>2.70927865</v>
+        <v>2.45405086</v>
       </c>
       <c r="I9" t="n">
-        <v>4.257565368008208</v>
+        <v>4.416475546887614</v>
       </c>
       <c r="J9" t="n">
-        <v>16.15916825578342</v>
+        <v>16.03292408310644</v>
       </c>
       <c r="K9" t="n">
-        <v>0.3042322848289751</v>
+        <v>0.3185761461047367</v>
       </c>
       <c r="L9" t="n">
-        <v>0.008584551329022421</v>
+        <v>0.009349877505388279</v>
       </c>
       <c r="M9" t="n">
-        <v>0.03343901599876057</v>
+        <v>0.03147370869819951</v>
       </c>
       <c r="N9" t="n">
-        <v>1.270539684819084</v>
+        <v>1.095591522548135</v>
       </c>
       <c r="O9" t="n">
         <v>0.85</v>
@@ -894,40 +894,40 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>9.757</v>
+        <v>8.576000000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>77.81999999999999</v>
+        <v>68.38</v>
       </c>
       <c r="E10" t="n">
-        <v>2.309417</v>
+        <v>2.62732248</v>
       </c>
       <c r="F10" t="n">
-        <v>0.06146065</v>
+        <v>0.05605742</v>
       </c>
       <c r="G10" t="n">
-        <v>0.07538022000000001</v>
+        <v>0.06064484000000001</v>
       </c>
       <c r="H10" t="n">
-        <v>0.78181485</v>
+        <v>0.55398124</v>
       </c>
       <c r="I10" t="n">
-        <v>2.365913892885485</v>
+        <v>2.054859227890428</v>
       </c>
       <c r="J10" t="n">
-        <v>18.81168465288209</v>
+        <v>16.34842105130862</v>
       </c>
       <c r="K10" t="n">
-        <v>0.6010924663799562</v>
+        <v>0.6844131339053274</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01479462070075401</v>
+        <v>0.01744708754512934</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0274361960885143</v>
+        <v>0.0260100294426209</v>
       </c>
       <c r="N10" t="n">
-        <v>0.4406157677818572</v>
+        <v>0.3423370118917518</v>
       </c>
       <c r="O10" t="n">
         <v>0.15</v>
@@ -941,40 +941,40 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>14.788</v>
+        <v>14.599</v>
       </c>
       <c r="D11" t="n">
-        <v>91.646</v>
+        <v>89.194</v>
       </c>
       <c r="E11" t="n">
-        <v>1.91304846</v>
+        <v>1.96091773</v>
       </c>
       <c r="F11" t="n">
-        <v>0.04162814</v>
+        <v>0.04334522</v>
       </c>
       <c r="G11" t="n">
-        <v>0.07583028999999999</v>
+        <v>0.07787151</v>
       </c>
       <c r="H11" t="n">
-        <v>1.1796218</v>
+        <v>1.19065976</v>
       </c>
       <c r="I11" t="n">
-        <v>3.847838596129243</v>
+        <v>3.72075839622019</v>
       </c>
       <c r="J11" t="n">
-        <v>17.68274196394223</v>
+        <v>16.57845617689443</v>
       </c>
       <c r="K11" t="n">
-        <v>0.3704606071601755</v>
+        <v>0.3671044303728115</v>
       </c>
       <c r="L11" t="n">
-        <v>0.00926349372841891</v>
+        <v>0.01189198948727948</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0227010566976758</v>
+        <v>0.02623187871428161</v>
       </c>
       <c r="N11" t="n">
-        <v>0.6851812841761992</v>
+        <v>0.6772005714042574</v>
       </c>
       <c r="O11" t="n">
         <v>0.85</v>
@@ -988,40 +988,40 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>7.416</v>
+        <v>6.887</v>
       </c>
       <c r="D12" t="n">
-        <v>73.866</v>
+        <v>68.515</v>
       </c>
       <c r="E12" t="n">
-        <v>2.45605754</v>
+        <v>2.6294566</v>
       </c>
       <c r="F12" t="n">
-        <v>0.06082523000000001</v>
+        <v>0.05679174000000001</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04636355</v>
+        <v>0.04003063</v>
       </c>
       <c r="H12" t="n">
-        <v>0.37697081</v>
+        <v>0.29944527</v>
       </c>
       <c r="I12" t="n">
-        <v>1.949036362601464</v>
+        <v>1.72545883990555</v>
       </c>
       <c r="J12" t="n">
-        <v>19.36339290994698</v>
+        <v>17.11685607118789</v>
       </c>
       <c r="K12" t="n">
-        <v>0.6760375782667537</v>
+        <v>0.6874198937515303</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01633279295996165</v>
+        <v>0.0204690165765728</v>
       </c>
       <c r="M12" t="n">
-        <v>0.02119164856414825</v>
+        <v>0.02060578349436188</v>
       </c>
       <c r="N12" t="n">
-        <v>0.2650125554772915</v>
+        <v>0.2249043335339928</v>
       </c>
       <c r="O12" t="n">
         <v>0.15</v>
@@ -1035,40 +1035,40 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>12.024</v>
+        <v>11.917</v>
       </c>
       <c r="D13" t="n">
-        <v>84.048</v>
+        <v>81.919</v>
       </c>
       <c r="E13" t="n">
-        <v>2.0988823</v>
+        <v>2.14064073</v>
       </c>
       <c r="F13" t="n">
-        <v>0.04014076</v>
+        <v>0.03880975</v>
       </c>
       <c r="G13" t="n">
-        <v>0.04787667999999999</v>
+        <v>0.04558601</v>
       </c>
       <c r="H13" t="n">
-        <v>0.6141641999999999</v>
+        <v>0.5788314899999999</v>
       </c>
       <c r="I13" t="n">
-        <v>3.342243946003133</v>
+        <v>3.396416736304107</v>
       </c>
       <c r="J13" t="n">
-        <v>17.69182570275597</v>
+        <v>15.96663309443705</v>
       </c>
       <c r="K13" t="n">
-        <v>0.4335243177721519</v>
+        <v>0.4127071059568448</v>
       </c>
       <c r="L13" t="n">
-        <v>0.009542757098209901</v>
+        <v>0.01067296300831577</v>
       </c>
       <c r="M13" t="n">
-        <v>0.01674002458183979</v>
+        <v>0.0167084814250557</v>
       </c>
       <c r="N13" t="n">
-        <v>0.3894769235103758</v>
+        <v>0.4064593869378709</v>
       </c>
       <c r="O13" t="n">
         <v>0.85</v>

--- a/results/nf/15x15/nf_15x15_True_2_1000.xlsx
+++ b/results/nf/15x15/nf_15x15_True_2_1000.xlsx
@@ -518,40 +518,40 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>48.177</v>
+        <v>68.664</v>
       </c>
       <c r="D2" t="n">
-        <v>48.177</v>
+        <v>68.664</v>
       </c>
       <c r="E2" t="n">
-        <v>3.55277867</v>
+        <v>2.47645532</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02433503</v>
+        <v>0.00086356</v>
       </c>
       <c r="G2" t="n">
-        <v>1.164731</v>
+        <v>0.05921297</v>
       </c>
       <c r="H2" t="n">
-        <v>56.44339078</v>
+        <v>4.08556316</v>
       </c>
       <c r="I2" t="n">
-        <v>5.566206396968554</v>
+        <v>5.334375273596671</v>
       </c>
       <c r="J2" t="n">
-        <v>5.566206396968554</v>
+        <v>5.334375273596671</v>
       </c>
       <c r="K2" t="n">
-        <v>0.395659608027096</v>
+        <v>0.1968626769498817</v>
       </c>
       <c r="L2" t="n">
-        <v>0.003768716893868008</v>
+        <v>6.962883436173964e-05</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1840152679911476</v>
+        <v>0.005940344347768912</v>
       </c>
       <c r="N2" t="n">
-        <v>12.67829446369795</v>
+        <v>0.649636654064962</v>
       </c>
       <c r="O2" t="n">
         <v>0.15</v>
@@ -565,40 +565,40 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>86.72</v>
+        <v>88.009</v>
       </c>
       <c r="D3" t="n">
-        <v>86.72</v>
+        <v>88.009</v>
       </c>
       <c r="E3" t="n">
-        <v>1.99003187</v>
+        <v>1.95433027</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01624326</v>
+        <v>0.00059699</v>
       </c>
       <c r="G3" t="n">
-        <v>1.38270517</v>
+        <v>0.05203552000000001</v>
       </c>
       <c r="H3" t="n">
-        <v>120.22189381</v>
+        <v>4.616124459999999</v>
       </c>
       <c r="I3" t="n">
-        <v>12.77132360825246</v>
+        <v>11.76236678021359</v>
       </c>
       <c r="J3" t="n">
-        <v>12.77132360825246</v>
+        <v>11.76236678021359</v>
       </c>
       <c r="K3" t="n">
-        <v>0.287110909693568</v>
+        <v>0.2595545276207594</v>
       </c>
       <c r="L3" t="n">
-        <v>0.002566627816951798</v>
+        <v>6.070358164741868e-05</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1272442274548896</v>
+        <v>0.004749481667056491</v>
       </c>
       <c r="N3" t="n">
-        <v>22.89348009974907</v>
+        <v>0.9561897840302375</v>
       </c>
       <c r="O3" t="n">
         <v>0.85</v>
@@ -612,40 +612,40 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>28.107</v>
+        <v>38.825</v>
       </c>
       <c r="D4" t="n">
-        <v>56.154</v>
+        <v>77.559</v>
       </c>
       <c r="E4" t="n">
-        <v>3.11514325</v>
+        <v>2.21976254</v>
       </c>
       <c r="F4" t="n">
-        <v>0.03845762</v>
+        <v>0.00162311</v>
       </c>
       <c r="G4" t="n">
-        <v>0.53157267</v>
+        <v>0.03139647</v>
       </c>
       <c r="H4" t="n">
-        <v>15.22160484</v>
+        <v>1.23813492</v>
       </c>
       <c r="I4" t="n">
-        <v>5.464193298960828</v>
+        <v>5.465734099757255</v>
       </c>
       <c r="J4" t="n">
-        <v>10.8941712381882</v>
+        <v>10.89914264106633</v>
       </c>
       <c r="K4" t="n">
-        <v>0.5607040403264237</v>
+        <v>0.2956742843521831</v>
       </c>
       <c r="L4" t="n">
-        <v>0.006600256731713133</v>
+        <v>0.0001082855191318472</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1009696213690559</v>
+        <v>0.004017594741459945</v>
       </c>
       <c r="N4" t="n">
-        <v>5.29275551823316</v>
+        <v>0.3309608445411829</v>
       </c>
       <c r="O4" t="n">
         <v>0.15</v>
@@ -659,40 +659,40 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>48.201</v>
+        <v>48.977</v>
       </c>
       <c r="D5" t="n">
-        <v>94.00700000000001</v>
+        <v>95.48099999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>1.84563495</v>
+        <v>1.80847664</v>
       </c>
       <c r="F5" t="n">
-        <v>0.02635705</v>
+        <v>0.00113542</v>
       </c>
       <c r="G5" t="n">
-        <v>0.62059492</v>
+        <v>0.02754358000000001</v>
       </c>
       <c r="H5" t="n">
-        <v>30.10493904</v>
+        <v>1.36982133</v>
       </c>
       <c r="I5" t="n">
-        <v>8.487086050561148</v>
+        <v>7.730474191874081</v>
       </c>
       <c r="J5" t="n">
-        <v>15.4521752747217</v>
+        <v>14.13107661596689</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2984568981797348</v>
+        <v>0.26521108367037</v>
       </c>
       <c r="L5" t="n">
-        <v>0.005955568334902362</v>
+        <v>0.0001234109146463709</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1131074828464919</v>
+        <v>0.003707729256545013</v>
       </c>
       <c r="N5" t="n">
-        <v>8.3538971929861</v>
+        <v>0.3807253529087321</v>
       </c>
       <c r="O5" t="n">
         <v>0.85</v>
@@ -706,40 +706,40 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>16.658</v>
+        <v>24.016</v>
       </c>
       <c r="D6" t="n">
-        <v>66.502</v>
+        <v>95.84099999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>2.65270173</v>
+        <v>1.80853719</v>
       </c>
       <c r="F6" t="n">
-        <v>0.05174844</v>
+        <v>0.00309052</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2110295</v>
+        <v>0.01856005</v>
       </c>
       <c r="H6" t="n">
-        <v>3.59561762</v>
+        <v>0.45732042</v>
       </c>
       <c r="I6" t="n">
-        <v>3.661207511250959</v>
+        <v>3.864541198988397</v>
       </c>
       <c r="J6" t="n">
-        <v>14.57815209546527</v>
+        <v>15.42457897761351</v>
       </c>
       <c r="K6" t="n">
-        <v>0.532946189282725</v>
+        <v>0.2906751818496847</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01399910313752474</v>
+        <v>0.0002616596938685731</v>
       </c>
       <c r="M6" t="n">
-        <v>0.05915484469594186</v>
+        <v>0.003398262185791936</v>
       </c>
       <c r="N6" t="n">
-        <v>1.539338216296044</v>
+        <v>0.155548288691771</v>
       </c>
       <c r="O6" t="n">
         <v>0.15</v>
@@ -753,40 +753,40 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>26.79</v>
+        <v>28.025</v>
       </c>
       <c r="D7" t="n">
-        <v>98.184</v>
+        <v>102.145</v>
       </c>
       <c r="E7" t="n">
-        <v>1.76667751</v>
+        <v>1.69266166</v>
       </c>
       <c r="F7" t="n">
-        <v>0.03642079</v>
+        <v>0.00215418</v>
       </c>
       <c r="G7" t="n">
-        <v>0.23882021</v>
+        <v>0.01493945</v>
       </c>
       <c r="H7" t="n">
-        <v>6.50948818</v>
+        <v>0.42923915</v>
       </c>
       <c r="I7" t="n">
-        <v>5.326750817738171</v>
+        <v>5.411807707472861</v>
       </c>
       <c r="J7" t="n">
-        <v>16.06113645120121</v>
+        <v>15.56445396495577</v>
       </c>
       <c r="K7" t="n">
-        <v>0.285562182767128</v>
+        <v>0.2564875004446195</v>
       </c>
       <c r="L7" t="n">
-        <v>0.007647379164392464</v>
+        <v>0.0002280533620360286</v>
       </c>
       <c r="M7" t="n">
-        <v>0.04746934300979614</v>
+        <v>0.002423054516656753</v>
       </c>
       <c r="N7" t="n">
-        <v>2.415783426311956</v>
+        <v>0.1504849184478556</v>
       </c>
       <c r="O7" t="n">
         <v>0.85</v>
@@ -800,40 +800,40 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>11.234</v>
+        <v>16.766</v>
       </c>
       <c r="D8" t="n">
-        <v>67.215</v>
+        <v>100.331</v>
       </c>
       <c r="E8" t="n">
-        <v>2.6200787</v>
+        <v>1.77649457</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0551564</v>
+        <v>0.00465617</v>
       </c>
       <c r="G8" t="n">
-        <v>0.10283655</v>
+        <v>0.01299438</v>
       </c>
       <c r="H8" t="n">
-        <v>1.19411918</v>
+        <v>0.2278982</v>
       </c>
       <c r="I8" t="n">
-        <v>2.2504018104126</v>
+        <v>3.636546228012023</v>
       </c>
       <c r="J8" t="n">
-        <v>13.45086245192853</v>
+        <v>21.76463043881375</v>
       </c>
       <c r="K8" t="n">
-        <v>0.553914384164642</v>
+        <v>0.4549831109261563</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01429440084562958</v>
+        <v>0.0003660237758732409</v>
       </c>
       <c r="M8" t="n">
-        <v>0.03249865855701594</v>
+        <v>0.002942759223492035</v>
       </c>
       <c r="N8" t="n">
-        <v>0.5401764753912315</v>
+        <v>0.09819261343753762</v>
       </c>
       <c r="O8" t="n">
         <v>0.15</v>
@@ -847,40 +847,40 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>19.057</v>
+        <v>19.693</v>
       </c>
       <c r="D9" t="n">
-        <v>95.72</v>
+        <v>100.229</v>
       </c>
       <c r="E9" t="n">
-        <v>1.81713302</v>
+        <v>1.73325661</v>
       </c>
       <c r="F9" t="n">
-        <v>0.04022206</v>
+        <v>0.00309312</v>
       </c>
       <c r="G9" t="n">
-        <v>0.12506851</v>
+        <v>0.01006144</v>
       </c>
       <c r="H9" t="n">
-        <v>2.45405086</v>
+        <v>0.20524318</v>
       </c>
       <c r="I9" t="n">
-        <v>4.416475546887614</v>
+        <v>4.253568365953913</v>
       </c>
       <c r="J9" t="n">
-        <v>16.03292408310644</v>
+        <v>16.65124087937061</v>
       </c>
       <c r="K9" t="n">
-        <v>0.3185761461047367</v>
+        <v>0.2919522439916838</v>
       </c>
       <c r="L9" t="n">
-        <v>0.009349877505388279</v>
+        <v>0.0003542334639005001</v>
       </c>
       <c r="M9" t="n">
-        <v>0.03147370869819951</v>
+        <v>0.002020930747820788</v>
       </c>
       <c r="N9" t="n">
-        <v>1.095591522548135</v>
+        <v>0.08598169339159405</v>
       </c>
       <c r="O9" t="n">
         <v>0.85</v>
@@ -894,40 +894,40 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>8.576000000000001</v>
+        <v>12.032</v>
       </c>
       <c r="D10" t="n">
-        <v>68.38</v>
+        <v>95.96299999999999</v>
       </c>
       <c r="E10" t="n">
-        <v>2.62732248</v>
+        <v>1.89867041</v>
       </c>
       <c r="F10" t="n">
-        <v>0.05605742</v>
+        <v>0.00600858</v>
       </c>
       <c r="G10" t="n">
-        <v>0.06064484000000001</v>
+        <v>0.00902055</v>
       </c>
       <c r="H10" t="n">
-        <v>0.55398124</v>
+        <v>0.11569048</v>
       </c>
       <c r="I10" t="n">
-        <v>2.054859227890428</v>
+        <v>3.139240486300919</v>
       </c>
       <c r="J10" t="n">
-        <v>16.34842105130862</v>
+        <v>25.01782409648214</v>
       </c>
       <c r="K10" t="n">
-        <v>0.6844131339053274</v>
+        <v>0.5621345139248056</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01744708754512934</v>
+        <v>0.0004348124255876843</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0260100294426209</v>
+        <v>0.002377026430680179</v>
       </c>
       <c r="N10" t="n">
-        <v>0.3423370118917518</v>
+        <v>0.0587414584353224</v>
       </c>
       <c r="O10" t="n">
         <v>0.15</v>
@@ -941,40 +941,40 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>14.599</v>
+        <v>15.069</v>
       </c>
       <c r="D11" t="n">
-        <v>89.194</v>
+        <v>93.55800000000001</v>
       </c>
       <c r="E11" t="n">
-        <v>1.96091773</v>
+        <v>1.87360093</v>
       </c>
       <c r="F11" t="n">
-        <v>0.04334522</v>
+        <v>0.00382647</v>
       </c>
       <c r="G11" t="n">
-        <v>0.07787151</v>
+        <v>0.00712754</v>
       </c>
       <c r="H11" t="n">
-        <v>1.19065976</v>
+        <v>0.11255008</v>
       </c>
       <c r="I11" t="n">
-        <v>3.72075839622019</v>
+        <v>3.755308421600194</v>
       </c>
       <c r="J11" t="n">
-        <v>16.57845617689443</v>
+        <v>18.02835704266081</v>
       </c>
       <c r="K11" t="n">
-        <v>0.3671044303728115</v>
+        <v>0.3601807146122814</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01189198948727948</v>
+        <v>0.0004997885830305928</v>
       </c>
       <c r="M11" t="n">
-        <v>0.02623187871428161</v>
+        <v>0.001663770140217536</v>
       </c>
       <c r="N11" t="n">
-        <v>0.6772005714042574</v>
+        <v>0.05429500054404345</v>
       </c>
       <c r="O11" t="n">
         <v>0.85</v>
@@ -988,40 +988,40 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>6.887</v>
+        <v>9.045999999999999</v>
       </c>
       <c r="D12" t="n">
-        <v>68.515</v>
+        <v>90.143</v>
       </c>
       <c r="E12" t="n">
-        <v>2.6294566</v>
+        <v>2.07618973</v>
       </c>
       <c r="F12" t="n">
-        <v>0.05679174000000001</v>
+        <v>0.007664120000000001</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04003063</v>
+        <v>0.0069627</v>
       </c>
       <c r="H12" t="n">
-        <v>0.29944527</v>
+        <v>0.06916602000000001</v>
       </c>
       <c r="I12" t="n">
-        <v>1.72545883990555</v>
+        <v>2.800665586557547</v>
       </c>
       <c r="J12" t="n">
-        <v>17.11685607118789</v>
+        <v>27.89427614478715</v>
       </c>
       <c r="K12" t="n">
-        <v>0.6874198937515303</v>
+        <v>0.7030763380091064</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0204690165765728</v>
+        <v>0.0005826775598379765</v>
       </c>
       <c r="M12" t="n">
-        <v>0.02060578349436188</v>
+        <v>0.002272251710932976</v>
       </c>
       <c r="N12" t="n">
-        <v>0.2249043335339928</v>
+        <v>0.04302386307333819</v>
       </c>
       <c r="O12" t="n">
         <v>0.15</v>
@@ -1035,40 +1035,40 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>11.917</v>
+        <v>12.052</v>
       </c>
       <c r="D13" t="n">
-        <v>81.919</v>
+        <v>84.774</v>
       </c>
       <c r="E13" t="n">
-        <v>2.14064073</v>
+        <v>2.07545842</v>
       </c>
       <c r="F13" t="n">
-        <v>0.03880975</v>
+        <v>0.00450943</v>
       </c>
       <c r="G13" t="n">
-        <v>0.04558601</v>
+        <v>0.00537033</v>
       </c>
       <c r="H13" t="n">
-        <v>0.5788314899999999</v>
+        <v>0.06835468</v>
       </c>
       <c r="I13" t="n">
-        <v>3.396416736304107</v>
+        <v>3.180788174873236</v>
       </c>
       <c r="J13" t="n">
-        <v>15.96663309443705</v>
+        <v>17.14581298460073</v>
       </c>
       <c r="K13" t="n">
-        <v>0.4127071059568448</v>
+        <v>0.41890826142342</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01067296300831577</v>
+        <v>0.0006953722151607854</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0167084814250557</v>
+        <v>0.001415226928219767</v>
       </c>
       <c r="N13" t="n">
-        <v>0.4064593869378709</v>
+        <v>0.03632059136984219</v>
       </c>
       <c r="O13" t="n">
         <v>0.85</v>

--- a/results/nf/15x15/nf_15x15_True_2_1000.xlsx
+++ b/results/nf/15x15/nf_15x15_True_2_1000.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -518,40 +518,40 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>57.006</v>
+        <v>68.664</v>
       </c>
       <c r="D2" t="n">
-        <v>57.006</v>
+        <v>68.664</v>
       </c>
       <c r="E2" t="n">
-        <v>2.9947793</v>
+        <v>2.47645532</v>
       </c>
       <c r="F2" t="n">
-        <v>0.15771367</v>
+        <v>0.00086356</v>
       </c>
       <c r="G2" t="n">
-        <v>8.949490429999999</v>
+        <v>0.05921297</v>
       </c>
       <c r="H2" t="n">
-        <v>512.77234832</v>
+        <v>4.08556316</v>
       </c>
       <c r="I2" t="n">
-        <v>5.676458947811231</v>
+        <v>5.334375273596671</v>
       </c>
       <c r="J2" t="n">
-        <v>5.676458947811231</v>
+        <v>5.334375273596671</v>
       </c>
       <c r="K2" t="n">
-        <v>0.3066027487584811</v>
+        <v>0.1968626769498817</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01810834052108386</v>
+        <v>6.962883436173964e-05</v>
       </c>
       <c r="M2" t="n">
-        <v>1.05778822273519</v>
+        <v>0.005940344347768912</v>
       </c>
       <c r="N2" t="n">
-        <v>92.91633951288924</v>
+        <v>0.649636654064962</v>
       </c>
       <c r="O2" t="n">
         <v>0.15</v>
@@ -565,40 +565,40 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>87.291</v>
+        <v>88.009</v>
       </c>
       <c r="D3" t="n">
-        <v>87.291</v>
+        <v>88.009</v>
       </c>
       <c r="E3" t="n">
-        <v>1.97136788</v>
+        <v>1.95433027</v>
       </c>
       <c r="F3" t="n">
-        <v>0.09454560000000001</v>
+        <v>0.00059699</v>
       </c>
       <c r="G3" t="n">
-        <v>8.108459160000001</v>
+        <v>0.05203552000000001</v>
       </c>
       <c r="H3" t="n">
-        <v>708.0508983</v>
+        <v>4.616124459999999</v>
       </c>
       <c r="I3" t="n">
-        <v>11.79047642524823</v>
+        <v>11.76236678021359</v>
       </c>
       <c r="J3" t="n">
-        <v>11.79047642524823</v>
+        <v>11.76236678021359</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2663902276948554</v>
+        <v>0.2595545276207594</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01550531711054949</v>
+        <v>6.070358164741868e-05</v>
       </c>
       <c r="M3" t="n">
-        <v>0.7822569855540713</v>
+        <v>0.004749481667056491</v>
       </c>
       <c r="N3" t="n">
-        <v>118.8119675302528</v>
+        <v>0.9561897840302375</v>
       </c>
       <c r="O3" t="n">
         <v>0.85</v>
@@ -612,40 +612,40 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>32.596</v>
+        <v>38.825</v>
       </c>
       <c r="D4" t="n">
-        <v>65.13200000000001</v>
+        <v>77.559</v>
       </c>
       <c r="E4" t="n">
-        <v>2.65553101</v>
+        <v>2.21976254</v>
       </c>
       <c r="F4" t="n">
-        <v>0.24087683</v>
+        <v>0.00162311</v>
       </c>
       <c r="G4" t="n">
-        <v>3.89035115</v>
+        <v>0.03139647</v>
       </c>
       <c r="H4" t="n">
-        <v>128.60162033</v>
+        <v>1.23813492</v>
       </c>
       <c r="I4" t="n">
-        <v>5.107138814137214</v>
+        <v>5.465734099757255</v>
       </c>
       <c r="J4" t="n">
-        <v>10.19325651980163</v>
+        <v>10.89914264106633</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3966147119639237</v>
+        <v>0.2956742843521831</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03929970491056081</v>
+        <v>0.0001082855191318472</v>
       </c>
       <c r="M4" t="n">
-        <v>0.7040189259567408</v>
+        <v>0.004017594741459945</v>
       </c>
       <c r="N4" t="n">
-        <v>37.86378018965771</v>
+        <v>0.3309608445411829</v>
       </c>
       <c r="O4" t="n">
         <v>0.15</v>
@@ -659,40 +659,40 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>48.706</v>
+        <v>48.977</v>
       </c>
       <c r="D5" t="n">
-        <v>95.149</v>
+        <v>95.48099999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>1.82313926</v>
+        <v>1.80847664</v>
       </c>
       <c r="F5" t="n">
-        <v>0.14741604</v>
+        <v>0.00113542</v>
       </c>
       <c r="G5" t="n">
-        <v>3.50247937</v>
+        <v>0.02754358000000001</v>
       </c>
       <c r="H5" t="n">
-        <v>171.25943988</v>
+        <v>1.36982133</v>
       </c>
       <c r="I5" t="n">
-        <v>8.351605433287261</v>
+        <v>7.730474191874081</v>
       </c>
       <c r="J5" t="n">
-        <v>15.47256278704983</v>
+        <v>14.13107661596689</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2958403812295042</v>
+        <v>0.26521108367037</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0292129690082449</v>
+        <v>0.0001234109146463709</v>
       </c>
       <c r="M5" t="n">
-        <v>0.4861583988630538</v>
+        <v>0.003707729256545013</v>
       </c>
       <c r="N5" t="n">
-        <v>41.27491655830466</v>
+        <v>0.3807253529087321</v>
       </c>
       <c r="O5" t="n">
         <v>0.85</v>
@@ -706,40 +706,40 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>19.349</v>
+        <v>24.016</v>
       </c>
       <c r="D6" t="n">
-        <v>77.271</v>
+        <v>95.84099999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>2.26595103</v>
+        <v>1.80853719</v>
       </c>
       <c r="F6" t="n">
-        <v>0.30906367</v>
+        <v>0.00309052</v>
       </c>
       <c r="G6" t="n">
-        <v>1.47205695</v>
+        <v>0.01856005</v>
       </c>
       <c r="H6" t="n">
-        <v>29.0620712</v>
+        <v>0.45732042</v>
       </c>
       <c r="I6" t="n">
-        <v>3.802849018914721</v>
+        <v>3.864541198988397</v>
       </c>
       <c r="J6" t="n">
-        <v>15.19152202188251</v>
+        <v>15.42457897761351</v>
       </c>
       <c r="K6" t="n">
-        <v>0.4194945145273746</v>
+        <v>0.2906751818496847</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0748015030148752</v>
+        <v>0.0002616596938685731</v>
       </c>
       <c r="M6" t="n">
-        <v>0.3741776653142428</v>
+        <v>0.003398262185791936</v>
       </c>
       <c r="N6" t="n">
-        <v>11.3149706709528</v>
+        <v>0.155548288691771</v>
       </c>
       <c r="O6" t="n">
         <v>0.15</v>
@@ -753,40 +753,40 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>27.374</v>
+        <v>28.025</v>
       </c>
       <c r="D7" t="n">
-        <v>100.151</v>
+        <v>102.145</v>
       </c>
       <c r="E7" t="n">
-        <v>1.72745804</v>
+        <v>1.69266166</v>
       </c>
       <c r="F7" t="n">
-        <v>0.19740672</v>
+        <v>0.00215418</v>
       </c>
       <c r="G7" t="n">
-        <v>1.31934387</v>
+        <v>0.01493945</v>
       </c>
       <c r="H7" t="n">
-        <v>36.53761601999999</v>
+        <v>0.42923915</v>
       </c>
       <c r="I7" t="n">
-        <v>5.391956713216195</v>
+        <v>5.411807707472861</v>
       </c>
       <c r="J7" t="n">
-        <v>15.50582566745898</v>
+        <v>15.56445396495577</v>
       </c>
       <c r="K7" t="n">
-        <v>0.26504487662693</v>
+        <v>0.2564875004446195</v>
       </c>
       <c r="L7" t="n">
-        <v>0.04269777525883116</v>
+        <v>0.0002280533620360286</v>
       </c>
       <c r="M7" t="n">
-        <v>0.2532566510775939</v>
+        <v>0.002423054516656753</v>
       </c>
       <c r="N7" t="n">
-        <v>11.91472697205999</v>
+        <v>0.1504849184478556</v>
       </c>
       <c r="O7" t="n">
         <v>0.85</v>
@@ -800,40 +800,40 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>13.515</v>
+        <v>16.766</v>
       </c>
       <c r="D8" t="n">
-        <v>80.89700000000001</v>
+        <v>100.331</v>
       </c>
       <c r="E8" t="n">
-        <v>2.18535134</v>
+        <v>1.77649457</v>
       </c>
       <c r="F8" t="n">
-        <v>0.33184509</v>
+        <v>0.00465617</v>
       </c>
       <c r="G8" t="n">
-        <v>0.7416628399999999</v>
+        <v>0.01299438</v>
       </c>
       <c r="H8" t="n">
-        <v>10.34928998</v>
+        <v>0.2278982</v>
       </c>
       <c r="I8" t="n">
-        <v>2.779478458362378</v>
+        <v>3.636546228012023</v>
       </c>
       <c r="J8" t="n">
-        <v>16.65339985488629</v>
+        <v>21.76463043881375</v>
       </c>
       <c r="K8" t="n">
-        <v>0.4940511267987307</v>
+        <v>0.4549831109261563</v>
       </c>
       <c r="L8" t="n">
-        <v>0.09575654022356639</v>
+        <v>0.0003660237758732409</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2489281767110648</v>
+        <v>0.002942759223492035</v>
       </c>
       <c r="N8" t="n">
-        <v>4.81067637557166</v>
+        <v>0.09819261343753762</v>
       </c>
       <c r="O8" t="n">
         <v>0.15</v>
@@ -847,40 +847,40 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>19.386</v>
+        <v>19.693</v>
       </c>
       <c r="D9" t="n">
-        <v>97.96299999999999</v>
+        <v>100.229</v>
       </c>
       <c r="E9" t="n">
-        <v>1.7723702</v>
+        <v>1.73325661</v>
       </c>
       <c r="F9" t="n">
-        <v>0.21472292</v>
+        <v>0.00309312</v>
       </c>
       <c r="G9" t="n">
-        <v>0.6810248899999999</v>
+        <v>0.01006144</v>
       </c>
       <c r="H9" t="n">
-        <v>13.60453525</v>
+        <v>0.20524318</v>
       </c>
       <c r="I9" t="n">
-        <v>4.325935473133842</v>
+        <v>4.253568365953913</v>
       </c>
       <c r="J9" t="n">
-        <v>15.8096671874071</v>
+        <v>16.65124087937061</v>
       </c>
       <c r="K9" t="n">
-        <v>0.3005308147747734</v>
+        <v>0.2919522439916838</v>
       </c>
       <c r="L9" t="n">
-        <v>0.05214509812563528</v>
+        <v>0.0003542334639005001</v>
       </c>
       <c r="M9" t="n">
-        <v>0.189282631053159</v>
+        <v>0.002020930747820788</v>
       </c>
       <c r="N9" t="n">
-        <v>6.493293347756063</v>
+        <v>0.08598169339159405</v>
       </c>
       <c r="O9" t="n">
         <v>0.85</v>
@@ -894,40 +894,40 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>9.936</v>
+        <v>12.032</v>
       </c>
       <c r="D10" t="n">
-        <v>79.25700000000001</v>
+        <v>95.96299999999999</v>
       </c>
       <c r="E10" t="n">
-        <v>2.26546075</v>
+        <v>1.89867041</v>
       </c>
       <c r="F10" t="n">
-        <v>0.33060072</v>
+        <v>0.00600858</v>
       </c>
       <c r="G10" t="n">
-        <v>0.41474409</v>
+        <v>0.00902055</v>
       </c>
       <c r="H10" t="n">
-        <v>4.38585765</v>
+        <v>0.11569048</v>
       </c>
       <c r="I10" t="n">
-        <v>2.324932108537647</v>
+        <v>3.139240486300919</v>
       </c>
       <c r="J10" t="n">
-        <v>18.54661499918322</v>
+        <v>25.01782409648214</v>
       </c>
       <c r="K10" t="n">
-        <v>0.5997726868765038</v>
+        <v>0.5621345139248056</v>
       </c>
       <c r="L10" t="n">
-        <v>0.09864243303404714</v>
+        <v>0.0004348124255876843</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1744700250455972</v>
+        <v>0.002377026430680179</v>
       </c>
       <c r="N10" t="n">
-        <v>2.657549453933808</v>
+        <v>0.0587414584353224</v>
       </c>
       <c r="O10" t="n">
         <v>0.15</v>
@@ -941,40 +941,40 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>15.059</v>
+        <v>15.069</v>
       </c>
       <c r="D11" t="n">
-        <v>91.931</v>
+        <v>93.55800000000001</v>
       </c>
       <c r="E11" t="n">
-        <v>1.89880183</v>
+        <v>1.87360093</v>
       </c>
       <c r="F11" t="n">
-        <v>0.21403565</v>
+        <v>0.00382647</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3976717</v>
+        <v>0.00712754</v>
       </c>
       <c r="H11" t="n">
-        <v>6.285023280000001</v>
+        <v>0.11255008</v>
       </c>
       <c r="I11" t="n">
-        <v>3.748809487366966</v>
+        <v>3.755308421600194</v>
       </c>
       <c r="J11" t="n">
-        <v>16.52390021388045</v>
+        <v>18.02835704266081</v>
       </c>
       <c r="K11" t="n">
-        <v>0.3461370452688625</v>
+        <v>0.3601807146122814</v>
       </c>
       <c r="L11" t="n">
-        <v>0.05703839222282536</v>
+        <v>0.0004997885830305928</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1362788077418846</v>
+        <v>0.001663770140217536</v>
       </c>
       <c r="N11" t="n">
-        <v>3.676985495048388</v>
+        <v>0.05429500054404345</v>
       </c>
       <c r="O11" t="n">
         <v>0.85</v>
@@ -988,40 +988,40 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>7.608</v>
+        <v>9.045999999999999</v>
       </c>
       <c r="D12" t="n">
-        <v>75.727</v>
+        <v>90.143</v>
       </c>
       <c r="E12" t="n">
-        <v>2.40170867</v>
+        <v>2.07618973</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3258777200000001</v>
+        <v>0.007664120000000001</v>
       </c>
       <c r="G12" t="n">
-        <v>0.25240488</v>
+        <v>0.0069627</v>
       </c>
       <c r="H12" t="n">
-        <v>2.08240106</v>
+        <v>0.06916602000000001</v>
       </c>
       <c r="I12" t="n">
-        <v>2.008574213309125</v>
+        <v>2.800665586557547</v>
       </c>
       <c r="J12" t="n">
-        <v>19.97988154786376</v>
+        <v>27.89427614478715</v>
       </c>
       <c r="K12" t="n">
-        <v>0.6837443405021351</v>
+        <v>0.7030763380091064</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1051580523325341</v>
+        <v>0.0005826775598379765</v>
       </c>
       <c r="M12" t="n">
-        <v>0.1167621609049987</v>
+        <v>0.002272251710932976</v>
       </c>
       <c r="N12" t="n">
-        <v>1.417590722499761</v>
+        <v>0.04302386307333819</v>
       </c>
       <c r="O12" t="n">
         <v>0.15</v>
@@ -1035,40 +1035,40 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>12.138</v>
+        <v>12.052</v>
       </c>
       <c r="D13" t="n">
-        <v>83.52500000000001</v>
+        <v>84.774</v>
       </c>
       <c r="E13" t="n">
-        <v>2.10337579</v>
+        <v>2.07545842</v>
       </c>
       <c r="F13" t="n">
-        <v>0.18859347</v>
+        <v>0.00450943</v>
       </c>
       <c r="G13" t="n">
-        <v>0.22584488</v>
+        <v>0.00537033</v>
       </c>
       <c r="H13" t="n">
-        <v>2.91814978</v>
+        <v>0.06835468</v>
       </c>
       <c r="I13" t="n">
-        <v>3.388279273678076</v>
+        <v>3.180788174873236</v>
       </c>
       <c r="J13" t="n">
-        <v>17.00990040275697</v>
+        <v>17.14581298460073</v>
       </c>
       <c r="K13" t="n">
-        <v>0.4086016977487724</v>
+        <v>0.41890826142342</v>
       </c>
       <c r="L13" t="n">
-        <v>0.05201769040022514</v>
+        <v>0.0006953722151607854</v>
       </c>
       <c r="M13" t="n">
-        <v>0.08359638611780749</v>
+        <v>0.001415226928219767</v>
       </c>
       <c r="N13" t="n">
-        <v>1.936955307406405</v>
+        <v>0.03632059136984219</v>
       </c>
       <c r="O13" t="n">
         <v>0.85</v>
